--- a/agendas.xlsx
+++ b/agendas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonso\Desktop\ARIZONA GIT\DJANGO EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonso\Desktop\ARIZONA GIT\DJANGO EXCEL\DJANGO-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39331C6-D43D-45B9-8961-37742E0D332B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58034EA4-1163-4CE7-AADA-5FDECC78A797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{24B23E80-0095-43EB-B892-898D1CC48C3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>tipo_cancha</t>
   </si>
@@ -130,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -144,16 +144,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,16 +261,39 @@
           <bgColor rgb="FF444654"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="medium">
           <color rgb="FFD9D9E3"/>
         </left>
         <right style="medium">
           <color rgb="FFD9D9E3"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="medium">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -293,39 +319,16 @@
           <bgColor rgb="FF444654"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color rgb="FFD9D9E3"/>
         </left>
         <right style="medium">
           <color rgb="FFD9D9E3"/>
         </right>
-        <top style="medium">
-          <color rgb="FFD9D9E3"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -342,10 +345,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}" name="Tabla1" displayName="Tabla1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:C4" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{68F0E37C-214C-4AF4-9B20-91C6550E8876}" name="tipo_cancha" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{68F0E37C-214C-4AF4-9B20-91C6550E8876}" name="tipo_cancha" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{790EA924-5A02-4CB9-92E3-353CD0519F6C}" name="dia" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{341847EE-16CD-401C-B704-ADA8172B4BFF}" name="horario" dataDxfId="0"/>
   </tableColumns>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACA622-A05B-4E11-8641-7E57873D564B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>45012</v>
+        <v>45010</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -705,6 +708,28 @@
       </c>
       <c r="C4" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45009</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45011</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/agendas.xlsx
+++ b/agendas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonso\Desktop\ARIZONA GIT\DJANGO EXCEL\DJANGO-EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonso\Desktop\PORTAFOLIO\DJANGO EXCEL\DJANGO-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58034EA4-1163-4CE7-AADA-5FDECC78A797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1970DD18-5254-4E5F-9D30-99F492F35269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{24B23E80-0095-43EB-B892-898D1CC48C3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>tipo_cancha</t>
   </si>
@@ -147,13 +147,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C6" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{68F0E37C-214C-4AF4-9B20-91C6550E8876}" name="tipo_cancha" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{790EA924-5A02-4CB9-92E3-353CD0519F6C}" name="dia" dataDxfId="1"/>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACA622-A05B-4E11-8641-7E57873D564B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,8 +684,8 @@
       <c r="B2" s="1">
         <v>45012</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
+      <c r="C2" s="6">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -693,43 +693,54 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>45010</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2</v>
+        <v>45012</v>
+      </c>
+      <c r="C3" s="6">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>45012</v>
       </c>
-      <c r="C4" s="8">
-        <v>3</v>
+      <c r="C4" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>45009</v>
-      </c>
-      <c r="C5" s="9">
-        <v>4</v>
+      <c r="B5" s="1">
+        <v>45012</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>45011</v>
-      </c>
-      <c r="C6" s="9">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>45012</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45012</v>
+      </c>
+      <c r="C7" s="9">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/agendas.xlsx
+++ b/agendas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonso\Desktop\PORTAFOLIO\DJANGO EXCEL\DJANGO-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1970DD18-5254-4E5F-9D30-99F492F35269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C2023-FFA1-48C8-B40F-F4C0EAC8E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{24B23E80-0095-43EB-B892-898D1CC48C3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{88DEB441-0A71-47AD-82AE-956FEC394F21}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="agendas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">agendas!$A$1:$A$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>tipo_cancha</t>
   </si>
@@ -49,12 +52,15 @@
   <si>
     <t>paddel</t>
   </si>
+  <si>
+    <t>numeracion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,34 +68,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFD1D5DB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFD1D5DB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF444654"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,234 +86,99 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FFD1D5DB"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF444654"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFD9D9E3"/>
+        <left style="thin">
+          <color indexed="64"/>
         </left>
         <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FFD1D5DB"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF444654"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFD9D9E3"/>
+        <left style="thin">
+          <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color rgb="FFD9D9E3"/>
+        <right style="thin">
+          <color indexed="64"/>
         </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FFD1D5DB"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF444654"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFD9D9E3"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFD9D9E3"/>
+        <right style="thin">
+          <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color rgb="FFD9D9E3"/>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD9D9E3"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FFD1D5DB"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF444654"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFD9D9E3"/>
+        <left style="thin">
+          <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color rgb="FFD9D9E3"/>
+        <right style="thin">
+          <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
@@ -345,14 +198,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C7" xr:uid="{C9260B6F-05E9-4EB7-8DC6-9B46BF50771A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F627D89D-51DA-4A78-80A3-79E58F1A3DFA}" name="Tabla1" displayName="Tabla1" ref="B1:D8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B1:D8" xr:uid="{F627D89D-51DA-4A78-80A3-79E58F1A3DFA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{68F0E37C-214C-4AF4-9B20-91C6550E8876}" name="tipo_cancha" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{790EA924-5A02-4CB9-92E3-353CD0519F6C}" name="dia" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{341847EE-16CD-401C-B704-ADA8172B4BFF}" name="horario" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AFBED628-CFC3-4D12-9C07-4164B23DE34F}" name="numeracion" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B5D19553-2862-421E-9C13-6A90E68137DD}" name="dia" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9E5D4879-0D5D-4C4C-AC71-3052980AFCA8}" name="horario" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -652,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACA622-A05B-4E11-8641-7E57873D564B}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F75D2F-45F8-42B6-B1EA-E5D352617B00}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,88 +519,126 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>45012</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>45012</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>45012</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>45012</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>45012</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>45012</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="2">
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45011</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A8" xr:uid="{15F75D2F-45F8-42B6-B1EA-E5D352617B00}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>